--- a/Code/Results/Cases/Case_3_70/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_70/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.96498843124648</v>
+        <v>9.267912615039105</v>
       </c>
       <c r="C2">
-        <v>8.310135717287814</v>
+        <v>5.176640248673213</v>
       </c>
       <c r="D2">
-        <v>10.69213649487409</v>
+        <v>11.57193575293549</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.25926246216257</v>
+        <v>29.59414412964679</v>
       </c>
       <c r="G2">
-        <v>18.9870177363676</v>
+        <v>27.57397830717327</v>
       </c>
       <c r="H2">
-        <v>8.313082286239782</v>
+        <v>14.12466470457965</v>
       </c>
       <c r="I2">
-        <v>12.09304816365559</v>
+        <v>20.13318332449921</v>
       </c>
       <c r="J2">
-        <v>8.30292334315001</v>
+        <v>11.32231131363037</v>
       </c>
       <c r="K2">
-        <v>12.64371104914708</v>
+        <v>9.039367830725869</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.09175279792059</v>
+        <v>21.31730252359417</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.1101190351749</v>
+        <v>8.897030344599822</v>
       </c>
       <c r="C3">
-        <v>7.867315986699712</v>
+        <v>4.94232216294743</v>
       </c>
       <c r="D3">
-        <v>10.11803670130085</v>
+        <v>11.45614024027583</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.00164249871324</v>
+        <v>29.66372225482063</v>
       </c>
       <c r="G3">
-        <v>18.96955252006977</v>
+        <v>27.70916398703917</v>
       </c>
       <c r="H3">
-        <v>8.418044963437117</v>
+        <v>14.17883464428974</v>
       </c>
       <c r="I3">
-        <v>12.35597886222362</v>
+        <v>20.24178517478937</v>
       </c>
       <c r="J3">
-        <v>8.027080045151848</v>
+        <v>11.30201281179924</v>
       </c>
       <c r="K3">
-        <v>11.95560343126955</v>
+        <v>8.774221942998841</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.22389687896328</v>
+        <v>21.41380680445016</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.55555771303847</v>
+        <v>8.661657169258749</v>
       </c>
       <c r="C4">
-        <v>7.582200392266973</v>
+        <v>4.791831175783424</v>
       </c>
       <c r="D4">
-        <v>9.752933080105135</v>
+        <v>11.38671564810761</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.8617709448209</v>
+        <v>29.71403485475213</v>
       </c>
       <c r="G4">
-        <v>18.98665172935867</v>
+        <v>27.80123271225656</v>
       </c>
       <c r="H4">
-        <v>8.487470486101381</v>
+        <v>14.21428679866409</v>
       </c>
       <c r="I4">
-        <v>12.52585626019311</v>
+        <v>20.31235662095816</v>
       </c>
       <c r="J4">
-        <v>7.857977008887659</v>
+        <v>11.29178133829331</v>
       </c>
       <c r="K4">
-        <v>11.51181071071911</v>
+        <v>8.6077423286452</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.31704419156696</v>
+        <v>21.47757430353592</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.3221390647428</v>
+        <v>8.563948522986021</v>
       </c>
       <c r="C5">
-        <v>7.462754130243895</v>
+        <v>4.728894420923996</v>
       </c>
       <c r="D5">
-        <v>9.601145359554197</v>
+        <v>11.35887456487305</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.80930816966264</v>
+        <v>29.73644175763586</v>
       </c>
       <c r="G5">
-        <v>19.00029466161807</v>
+        <v>27.8410197342961</v>
       </c>
       <c r="H5">
-        <v>8.516975286099191</v>
+        <v>14.22928530227435</v>
       </c>
       <c r="I5">
-        <v>12.59714463293555</v>
+        <v>20.34209398026746</v>
       </c>
       <c r="J5">
-        <v>7.789229781869897</v>
+        <v>11.28817626280749</v>
       </c>
       <c r="K5">
-        <v>11.32569351223295</v>
+        <v>8.539068866888599</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.35788659422801</v>
+        <v>21.50469372501991</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.28293247045631</v>
+        <v>8.547619989852818</v>
       </c>
       <c r="C6">
-        <v>7.442725533105341</v>
+        <v>4.71834829790281</v>
       </c>
       <c r="D6">
-        <v>9.575765058446065</v>
+        <v>11.35427958321235</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.80086843996215</v>
+        <v>29.74027726006729</v>
       </c>
       <c r="G6">
-        <v>19.00295359236402</v>
+        <v>27.84776301110435</v>
       </c>
       <c r="H6">
-        <v>8.521946750074058</v>
+        <v>14.23180911050833</v>
       </c>
       <c r="I6">
-        <v>12.60910494772846</v>
+        <v>20.3470909973483</v>
       </c>
       <c r="J6">
-        <v>7.777827181573156</v>
+        <v>11.28761180900581</v>
       </c>
       <c r="K6">
-        <v>11.29447365487425</v>
+        <v>8.527618324644351</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.36483878658213</v>
+        <v>21.50926531619096</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.5524397826304</v>
+        <v>8.660346507276854</v>
       </c>
       <c r="C7">
-        <v>7.58060259732071</v>
+        <v>4.790988831863076</v>
       </c>
       <c r="D7">
-        <v>9.750897944559728</v>
+        <v>11.38633831383197</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.86104514842778</v>
+        <v>29.71432933914347</v>
       </c>
       <c r="G7">
-        <v>18.98680912945684</v>
+        <v>27.80176012452224</v>
       </c>
       <c r="H7">
-        <v>8.487863534031463</v>
+        <v>14.21448684037991</v>
       </c>
       <c r="I7">
-        <v>12.52680940465121</v>
+        <v>20.31275370456991</v>
       </c>
       <c r="J7">
-        <v>7.857049064989289</v>
+        <v>11.29173043025188</v>
       </c>
       <c r="K7">
-        <v>11.50932186996576</v>
+        <v>8.606819413235124</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.31758350371464</v>
+        <v>21.47793545715374</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.67640046917246</v>
+        <v>9.141694190054244</v>
       </c>
       <c r="C8">
-        <v>8.160230542437825</v>
+        <v>5.097250827439624</v>
       </c>
       <c r="D8">
-        <v>10.49689189838788</v>
+        <v>11.5316795901876</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.16659938057525</v>
+        <v>29.61655634976348</v>
       </c>
       <c r="G8">
-        <v>18.97503175776747</v>
+        <v>27.61870252503799</v>
       </c>
       <c r="H8">
-        <v>8.348216196295263</v>
+        <v>14.14288785588667</v>
       </c>
       <c r="I8">
-        <v>12.18191739320053</v>
+        <v>20.16982251021598</v>
       </c>
       <c r="J8">
-        <v>8.207813508599283</v>
+        <v>11.31485115764948</v>
       </c>
       <c r="K8">
-        <v>12.41091578445528</v>
+        <v>8.948763028297853</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.13473954211835</v>
+        <v>21.34963964151654</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.64447894893844</v>
+        <v>10.01991648261734</v>
       </c>
       <c r="C9">
-        <v>9.189804235790984</v>
+        <v>5.643352640690866</v>
       </c>
       <c r="D9">
-        <v>11.8540654263456</v>
+        <v>11.8286690639849</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.913301266165</v>
+        <v>29.48525121296759</v>
       </c>
       <c r="G9">
-        <v>19.18624684655978</v>
+        <v>27.33212758224871</v>
       </c>
       <c r="H9">
-        <v>8.115749011725947</v>
+        <v>14.01985498870229</v>
       </c>
       <c r="I9">
-        <v>11.57562938204572</v>
+        <v>19.9203556177421</v>
       </c>
       <c r="J9">
-        <v>8.893874883077322</v>
+        <v>11.37774453479087</v>
       </c>
       <c r="K9">
-        <v>14.00723038757288</v>
+        <v>9.586369487833348</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.87789688190048</v>
+        <v>21.13392272687956</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.94655597898673</v>
+        <v>10.61939238807822</v>
       </c>
       <c r="C10">
-        <v>9.878911073822652</v>
+        <v>6.009228975901968</v>
       </c>
       <c r="D10">
-        <v>12.78091234177905</v>
+        <v>12.05237682084672</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.55389444273567</v>
+        <v>29.42585213633629</v>
       </c>
       <c r="G10">
-        <v>19.50124055599068</v>
+        <v>27.16635757379004</v>
       </c>
       <c r="H10">
-        <v>7.973034374672674</v>
+        <v>13.94003013879798</v>
       </c>
       <c r="I10">
-        <v>11.17792852288378</v>
+        <v>19.75580472593893</v>
       </c>
       <c r="J10">
-        <v>9.392205910537747</v>
+        <v>11.43441819501323</v>
       </c>
       <c r="K10">
-        <v>15.07283760254765</v>
+        <v>10.03020504897307</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.76047019379321</v>
+        <v>20.99738331124676</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.50784251776184</v>
+        <v>10.88122357098071</v>
       </c>
       <c r="C11">
-        <v>10.17755101089792</v>
+        <v>6.167668311525706</v>
       </c>
       <c r="D11">
-        <v>13.18651177645111</v>
+        <v>12.15495713322714</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.86547500600845</v>
+        <v>29.40691713465492</v>
       </c>
       <c r="G11">
-        <v>19.68234937417246</v>
+        <v>27.10079786101457</v>
       </c>
       <c r="H11">
-        <v>7.914909447752942</v>
+        <v>13.90600572932943</v>
       </c>
       <c r="I11">
-        <v>11.00873158281351</v>
+        <v>19.68500269100382</v>
       </c>
       <c r="J11">
-        <v>9.61686946133811</v>
+        <v>11.46241378904071</v>
       </c>
       <c r="K11">
-        <v>15.53406859205598</v>
+        <v>10.22595336416105</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.72464866709269</v>
+        <v>20.94005147515902</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.71594611027946</v>
+        <v>10.97874395801984</v>
       </c>
       <c r="C12">
-        <v>10.28849451155985</v>
+        <v>6.226493298604919</v>
       </c>
       <c r="D12">
-        <v>13.33775414019261</v>
+        <v>12.19388635543989</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.98636295860584</v>
+        <v>29.40091167562812</v>
       </c>
       <c r="G12">
-        <v>19.75658310421201</v>
+        <v>27.07739872424393</v>
       </c>
       <c r="H12">
-        <v>7.893941275690731</v>
+        <v>13.89345035731811</v>
       </c>
       <c r="I12">
-        <v>10.94648203239837</v>
+        <v>19.65877398308969</v>
       </c>
       <c r="J12">
-        <v>9.701597660050036</v>
+        <v>11.47332770362113</v>
       </c>
       <c r="K12">
-        <v>15.7053336297068</v>
+        <v>10.29913370934545</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.71379697621147</v>
+        <v>20.91903045328193</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.67132453649626</v>
+        <v>10.95781461244581</v>
       </c>
       <c r="C13">
-        <v>10.26469635199443</v>
+        <v>6.213876745795934</v>
       </c>
       <c r="D13">
-        <v>13.3052864288152</v>
+        <v>12.18549902229206</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.96019872769059</v>
+        <v>29.40215322754208</v>
       </c>
       <c r="G13">
-        <v>19.74034110366883</v>
+        <v>27.08237452236062</v>
       </c>
       <c r="H13">
-        <v>7.898409687650751</v>
+        <v>13.8961397536883</v>
       </c>
       <c r="I13">
-        <v>10.95980518755679</v>
+        <v>19.66439690301325</v>
       </c>
       <c r="J13">
-        <v>9.683366136254961</v>
+        <v>11.47096339176812</v>
       </c>
       <c r="K13">
-        <v>15.66859963483261</v>
+        <v>10.28341594786054</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.71601045283391</v>
+        <v>20.92352701994369</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.5250522488695</v>
+        <v>10.88927963049858</v>
       </c>
       <c r="C14">
-        <v>10.18672142913755</v>
+        <v>6.172531491230613</v>
       </c>
       <c r="D14">
-        <v>13.19900186276985</v>
+        <v>12.15815836172884</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.8753624593976</v>
+        <v>29.40639970787303</v>
       </c>
       <c r="G14">
-        <v>19.68834224349051</v>
+        <v>27.09884414401896</v>
       </c>
       <c r="H14">
-        <v>7.913163098602404</v>
+        <v>13.90496619964268</v>
       </c>
       <c r="I14">
-        <v>11.00357291545851</v>
+        <v>19.68283316720322</v>
       </c>
       <c r="J14">
-        <v>9.623847337751656</v>
+        <v>11.46330545353445</v>
       </c>
       <c r="K14">
-        <v>15.54822670592991</v>
+        <v>10.23199322319252</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.72370045237857</v>
+        <v>20.93830823775652</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.43487824820507</v>
+        <v>10.84708598989059</v>
       </c>
       <c r="C15">
-        <v>10.13867997716736</v>
+        <v>6.14705303799548</v>
       </c>
       <c r="D15">
-        <v>13.13359247934703</v>
+        <v>12.14142142381315</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.8237751915321</v>
+        <v>29.40915254276309</v>
       </c>
       <c r="G15">
-        <v>19.65723328352783</v>
+        <v>27.10911839232553</v>
       </c>
       <c r="H15">
-        <v>7.922337774790803</v>
+        <v>13.91041548614567</v>
       </c>
       <c r="I15">
-        <v>11.03062352563246</v>
+        <v>19.69420175948547</v>
       </c>
       <c r="J15">
-        <v>9.587343690413578</v>
+        <v>11.45865527320469</v>
       </c>
       <c r="K15">
-        <v>15.47405274491564</v>
+        <v>10.20037053313954</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.72876963857289</v>
+        <v>20.94745198300334</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.90925161064965</v>
+        <v>10.60205645503645</v>
       </c>
       <c r="C16">
-        <v>9.859094556586291</v>
+        <v>5.998711626814954</v>
       </c>
       <c r="D16">
-        <v>12.75407878430239</v>
+        <v>12.04568653340077</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.53393785833553</v>
+        <v>29.42725248512616</v>
       </c>
       <c r="G16">
-        <v>19.49018461023744</v>
+        <v>27.17084116732672</v>
       </c>
       <c r="H16">
-        <v>7.976975186859879</v>
+        <v>13.9422997497377</v>
       </c>
       <c r="I16">
-        <v>11.18923299261276</v>
+        <v>19.76051333249713</v>
       </c>
       <c r="J16">
-        <v>9.377477844419923</v>
+        <v>11.4326326875164</v>
       </c>
       <c r="K16">
-        <v>15.04222065585625</v>
+        <v>10.01728329298175</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.76318081259019</v>
+        <v>21.00122643783929</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.57885991350649</v>
+        <v>10.44890387113469</v>
       </c>
       <c r="C17">
-        <v>9.68376740366304</v>
+        <v>5.905642945989991</v>
       </c>
       <c r="D17">
-        <v>12.51711766405749</v>
+        <v>11.98714145976674</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.36129974839587</v>
+        <v>29.44042890105851</v>
       </c>
       <c r="G17">
-        <v>19.39755320569326</v>
+        <v>27.21123648612656</v>
       </c>
       <c r="H17">
-        <v>8.012278917354209</v>
+        <v>13.96244571127717</v>
       </c>
       <c r="I17">
-        <v>11.28962749546617</v>
+        <v>19.80223115015094</v>
       </c>
       <c r="J17">
-        <v>9.248169824706762</v>
+        <v>11.41723182445238</v>
       </c>
       <c r="K17">
-        <v>14.77127108568457</v>
+        <v>9.903343946992564</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.78892627345071</v>
+        <v>21.03544106856765</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.38590466609052</v>
+        <v>10.35979437265742</v>
       </c>
       <c r="C18">
-        <v>9.581527436004686</v>
+        <v>5.851360382060598</v>
       </c>
       <c r="D18">
-        <v>12.37931688722446</v>
+        <v>11.95354650508173</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.26390215454786</v>
+        <v>29.44876863227738</v>
       </c>
       <c r="G18">
-        <v>19.3478226731465</v>
+        <v>27.23539732080678</v>
       </c>
       <c r="H18">
-        <v>8.033220207930707</v>
+        <v>13.97424852873804</v>
       </c>
       <c r="I18">
-        <v>11.34846556158224</v>
+        <v>19.82660763813895</v>
       </c>
       <c r="J18">
-        <v>9.173606917850515</v>
+        <v>11.40858246789299</v>
       </c>
       <c r="K18">
-        <v>14.61321438238751</v>
+        <v>9.837232927352947</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.80537936221632</v>
+        <v>21.0555702825073</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.32007086297923</v>
+        <v>10.32945037617706</v>
       </c>
       <c r="C19">
-        <v>9.54667135370395</v>
+        <v>5.832852840228424</v>
       </c>
       <c r="D19">
-        <v>12.33240269232716</v>
+        <v>11.94218633889023</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.23125113182286</v>
+        <v>29.45172295131845</v>
       </c>
       <c r="G19">
-        <v>19.33158722865892</v>
+        <v>27.24373656761605</v>
       </c>
       <c r="H19">
-        <v>8.04041782270456</v>
+        <v>13.97828175800526</v>
       </c>
       <c r="I19">
-        <v>11.36857113107776</v>
+        <v>19.8349266325839</v>
       </c>
       <c r="J19">
-        <v>9.148330685097747</v>
+        <v>11.4056899794072</v>
       </c>
       <c r="K19">
-        <v>14.55931938252724</v>
+        <v>9.814751862302133</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.81122713536699</v>
+        <v>21.06246289688074</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.61433303732662</v>
+        <v>10.46531331770706</v>
       </c>
       <c r="C20">
-        <v>9.702575905478586</v>
+        <v>5.915628260687221</v>
       </c>
       <c r="D20">
-        <v>12.54249892048469</v>
+        <v>11.99336578431175</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.3794807900528</v>
+        <v>29.43894747075988</v>
       </c>
       <c r="G20">
-        <v>19.40704506373421</v>
+        <v>27.20684036718933</v>
       </c>
       <c r="H20">
-        <v>8.008454546521685</v>
+        <v>13.96027884783763</v>
       </c>
       <c r="I20">
-        <v>11.27882619684609</v>
+        <v>19.79775073571162</v>
       </c>
       <c r="J20">
-        <v>9.261954807818773</v>
+        <v>11.41884970233125</v>
       </c>
       <c r="K20">
-        <v>14.80034334555054</v>
+        <v>9.915533067710792</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.78601406762864</v>
+        <v>21.03175229020007</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.56813637835548</v>
+        <v>10.90945471454216</v>
       </c>
       <c r="C21">
-        <v>10.20968282533254</v>
+        <v>6.184707574511315</v>
       </c>
       <c r="D21">
-        <v>13.23028425712807</v>
+        <v>12.16618694941091</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.90020229046326</v>
+        <v>29.40512078781189</v>
       </c>
       <c r="G21">
-        <v>19.70346063158259</v>
+        <v>27.09396780954621</v>
       </c>
       <c r="H21">
-        <v>7.908800825872478</v>
+        <v>13.90236473224128</v>
       </c>
       <c r="I21">
-        <v>10.9906666498016</v>
+        <v>19.67740218333178</v>
       </c>
       <c r="J21">
-        <v>9.641339261509513</v>
+        <v>11.46554634064498</v>
       </c>
       <c r="K21">
-        <v>15.58367528707515</v>
+        <v>10.24712342811535</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.72136659853559</v>
+        <v>20.93394791351471</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.16561486041121</v>
+        <v>11.190205403522</v>
       </c>
       <c r="C22">
-        <v>10.52860320843171</v>
+        <v>6.353724353889979</v>
       </c>
       <c r="D22">
-        <v>13.66608754822888</v>
+        <v>12.27961184021028</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.2574175734793</v>
+        <v>29.38980300427921</v>
       </c>
       <c r="G22">
-        <v>19.93020535889697</v>
+        <v>27.02852072298597</v>
       </c>
       <c r="H22">
-        <v>7.849781829381191</v>
+        <v>13.86643174161419</v>
       </c>
       <c r="I22">
-        <v>10.81303336334132</v>
+        <v>19.60214251167934</v>
       </c>
       <c r="J22">
-        <v>9.887247453783575</v>
+        <v>11.49788431127293</v>
       </c>
       <c r="K22">
-        <v>16.07585097943991</v>
+        <v>10.45830339027296</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.69501800752254</v>
+        <v>20.87404574192864</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.84909027978527</v>
+        <v>11.0412540048739</v>
       </c>
       <c r="C23">
-        <v>10.3595355314895</v>
+        <v>6.26414929609652</v>
       </c>
       <c r="D23">
-        <v>13.43475597945199</v>
+        <v>12.21904203377739</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.06522136525584</v>
+        <v>29.39735661013939</v>
       </c>
       <c r="G23">
-        <v>19.80610345943096</v>
+        <v>27.06268627356803</v>
       </c>
       <c r="H23">
-        <v>7.880699337576913</v>
+        <v>13.88543446405508</v>
       </c>
       <c r="I23">
-        <v>10.90681070660209</v>
+        <v>19.64199945951124</v>
       </c>
       <c r="J23">
-        <v>9.75620416541501</v>
+        <v>11.48046052481718</v>
       </c>
       <c r="K23">
-        <v>15.81497862726489</v>
+        <v>10.3461172931892</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.70756410152146</v>
+        <v>20.90564833518627</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.59830501075535</v>
+        <v>10.4578979036015</v>
       </c>
       <c r="C24">
-        <v>9.694077072554174</v>
+        <v>5.911116315712191</v>
       </c>
       <c r="D24">
-        <v>12.53102893697569</v>
+        <v>11.99055156723475</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.37125536516042</v>
+        <v>29.43961484440059</v>
       </c>
       <c r="G24">
-        <v>19.40274283327523</v>
+        <v>27.20882493457838</v>
       </c>
       <c r="H24">
-        <v>8.010181541323005</v>
+        <v>13.96125779951564</v>
       </c>
       <c r="I24">
-        <v>11.28370598569687</v>
+        <v>19.7997751088716</v>
       </c>
       <c r="J24">
-        <v>9.25572330415025</v>
+        <v>11.41811762136321</v>
       </c>
       <c r="K24">
-        <v>14.7872068906573</v>
+        <v>9.910024248436638</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.78732554505787</v>
+        <v>21.03341855800053</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.13736236033507</v>
+        <v>9.790007572851508</v>
       </c>
       <c r="C25">
-        <v>8.922991558392253</v>
+        <v>5.501694321763932</v>
       </c>
       <c r="D25">
-        <v>11.49892176425449</v>
+        <v>11.74722696274833</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.69524055309468</v>
+        <v>29.51427718951071</v>
       </c>
       <c r="G25">
-        <v>19.1021832937822</v>
+        <v>27.40183552061992</v>
       </c>
       <c r="H25">
-        <v>8.173928540379247</v>
+        <v>14.05128127636149</v>
       </c>
       <c r="I25">
-        <v>11.7316734646275</v>
+        <v>19.98454951848751</v>
       </c>
       <c r="J25">
-        <v>8.708979187301793</v>
+        <v>11.35887346798193</v>
       </c>
       <c r="K25">
-        <v>13.59408345961402</v>
+        <v>9.417901868212164</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.93555929556115</v>
+        <v>21.18843148777679</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_70/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_70/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.267912615039105</v>
+        <v>13.96498843124654</v>
       </c>
       <c r="C2">
-        <v>5.176640248673213</v>
+        <v>8.310135717287679</v>
       </c>
       <c r="D2">
-        <v>11.57193575293549</v>
+        <v>10.69213649487404</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.59414412964679</v>
+        <v>20.2592624621624</v>
       </c>
       <c r="G2">
-        <v>27.57397830717327</v>
+        <v>18.98701773636742</v>
       </c>
       <c r="H2">
-        <v>14.12466470457965</v>
+        <v>8.313082286239775</v>
       </c>
       <c r="I2">
-        <v>20.13318332449921</v>
+        <v>12.09304816365537</v>
       </c>
       <c r="J2">
-        <v>11.32231131363037</v>
+        <v>8.30292334315002</v>
       </c>
       <c r="K2">
-        <v>9.039367830725869</v>
+        <v>12.64371104914707</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.31730252359417</v>
+        <v>13.0917527979205</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.897030344599822</v>
+        <v>13.11011903517485</v>
       </c>
       <c r="C3">
-        <v>4.94232216294743</v>
+        <v>7.867315986699977</v>
       </c>
       <c r="D3">
-        <v>11.45614024027583</v>
+        <v>10.11803670130081</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.66372225482063</v>
+        <v>20.00164249871323</v>
       </c>
       <c r="G3">
-        <v>27.70916398703917</v>
+        <v>18.96955252006978</v>
       </c>
       <c r="H3">
-        <v>14.17883464428974</v>
+        <v>8.418044963437126</v>
       </c>
       <c r="I3">
-        <v>20.24178517478937</v>
+        <v>12.35597886222375</v>
       </c>
       <c r="J3">
-        <v>11.30201281179924</v>
+        <v>8.027080045151795</v>
       </c>
       <c r="K3">
-        <v>8.774221942998841</v>
+        <v>11.95560343126958</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.41380680445016</v>
+        <v>13.22389687896329</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.661657169258749</v>
+        <v>12.55555771303852</v>
       </c>
       <c r="C4">
-        <v>4.791831175783424</v>
+        <v>7.58220039226693</v>
       </c>
       <c r="D4">
-        <v>11.38671564810761</v>
+        <v>9.752933080105104</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.71403485475213</v>
+        <v>19.86177094482078</v>
       </c>
       <c r="G4">
-        <v>27.80123271225656</v>
+        <v>18.98665172935839</v>
       </c>
       <c r="H4">
-        <v>14.21428679866409</v>
+        <v>8.487470486101257</v>
       </c>
       <c r="I4">
-        <v>20.31235662095816</v>
+        <v>12.52585626019295</v>
       </c>
       <c r="J4">
-        <v>11.29178133829331</v>
+        <v>7.857977008887658</v>
       </c>
       <c r="K4">
-        <v>8.6077423286452</v>
+        <v>11.51181071071916</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.47757430353592</v>
+        <v>13.31704419156683</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.563948522986021</v>
+        <v>12.32213906474288</v>
       </c>
       <c r="C5">
-        <v>4.728894420923996</v>
+        <v>7.462754130243765</v>
       </c>
       <c r="D5">
-        <v>11.35887456487305</v>
+        <v>9.60114535955417</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.73644175763586</v>
+        <v>19.80930816966255</v>
       </c>
       <c r="G5">
-        <v>27.8410197342961</v>
+        <v>19.00029466161794</v>
       </c>
       <c r="H5">
-        <v>14.22928530227435</v>
+        <v>8.516975286099129</v>
       </c>
       <c r="I5">
-        <v>20.34209398026746</v>
+        <v>12.59714463293542</v>
       </c>
       <c r="J5">
-        <v>11.28817626280749</v>
+        <v>7.789229781869891</v>
       </c>
       <c r="K5">
-        <v>8.539068866888599</v>
+        <v>11.32569351223298</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.50469372501991</v>
+        <v>13.35788659422792</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.547619989852818</v>
+        <v>12.28293247045638</v>
       </c>
       <c r="C6">
-        <v>4.71834829790281</v>
+        <v>7.442725533105239</v>
       </c>
       <c r="D6">
-        <v>11.35427958321235</v>
+        <v>9.575765058446017</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.74027726006729</v>
+        <v>19.80086843996197</v>
       </c>
       <c r="G6">
-        <v>27.84776301110435</v>
+        <v>19.00295359236372</v>
       </c>
       <c r="H6">
-        <v>14.23180911050833</v>
+        <v>8.521946750073999</v>
       </c>
       <c r="I6">
-        <v>20.3470909973483</v>
+        <v>12.60910494772834</v>
       </c>
       <c r="J6">
-        <v>11.28761180900581</v>
+        <v>7.777827181573207</v>
       </c>
       <c r="K6">
-        <v>8.527618324644351</v>
+        <v>11.29447365487428</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.50926531619096</v>
+        <v>13.36483878658199</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.660346507276854</v>
+        <v>12.55243978263044</v>
       </c>
       <c r="C7">
-        <v>4.790988831863076</v>
+        <v>7.580602597320666</v>
       </c>
       <c r="D7">
-        <v>11.38633831383197</v>
+        <v>9.750897944559721</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.71432933914347</v>
+        <v>19.86104514842773</v>
       </c>
       <c r="G7">
-        <v>27.80176012452224</v>
+        <v>18.98680912945665</v>
       </c>
       <c r="H7">
-        <v>14.21448684037991</v>
+        <v>8.487863534031463</v>
       </c>
       <c r="I7">
-        <v>20.31275370456991</v>
+        <v>12.52680940465119</v>
       </c>
       <c r="J7">
-        <v>11.29173043025188</v>
+        <v>7.857049064989312</v>
       </c>
       <c r="K7">
-        <v>8.606819413235124</v>
+        <v>11.50932186996577</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.47793545715374</v>
+        <v>13.31758350371461</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.141694190054244</v>
+        <v>13.67640046917251</v>
       </c>
       <c r="C8">
-        <v>5.097250827439624</v>
+        <v>8.160230542437647</v>
       </c>
       <c r="D8">
-        <v>11.5316795901876</v>
+        <v>10.49689189838791</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.61655634976348</v>
+        <v>20.16659938057542</v>
       </c>
       <c r="G8">
-        <v>27.61870252503799</v>
+        <v>18.9750317577677</v>
       </c>
       <c r="H8">
-        <v>14.14288785588667</v>
+        <v>8.348216196295393</v>
       </c>
       <c r="I8">
-        <v>20.16982251021598</v>
+        <v>12.18191739320063</v>
       </c>
       <c r="J8">
-        <v>11.31485115764948</v>
+        <v>8.207813508599269</v>
       </c>
       <c r="K8">
-        <v>8.948763028297853</v>
+        <v>12.41091578445527</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.34963964151654</v>
+        <v>13.1347395421185</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.01991648261734</v>
+        <v>15.64447894893854</v>
       </c>
       <c r="C9">
-        <v>5.643352640690866</v>
+        <v>9.189804235790998</v>
       </c>
       <c r="D9">
-        <v>11.8286690639849</v>
+        <v>11.85406542634554</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.48525121296759</v>
+        <v>20.91330126616474</v>
       </c>
       <c r="G9">
-        <v>27.33212758224871</v>
+        <v>19.18624684655945</v>
       </c>
       <c r="H9">
-        <v>14.01985498870229</v>
+        <v>8.115749011725834</v>
       </c>
       <c r="I9">
-        <v>19.9203556177421</v>
+        <v>11.57562938204553</v>
       </c>
       <c r="J9">
-        <v>11.37774453479087</v>
+        <v>8.893874883077318</v>
       </c>
       <c r="K9">
-        <v>9.586369487833348</v>
+        <v>14.00723038757297</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.13392272687956</v>
+        <v>12.87789688190029</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.61939238807822</v>
+        <v>16.94655597898683</v>
       </c>
       <c r="C10">
-        <v>6.009228975901968</v>
+        <v>9.878911073822454</v>
       </c>
       <c r="D10">
-        <v>12.05237682084672</v>
+        <v>12.78091234177898</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.42585213633629</v>
+        <v>21.55389444273577</v>
       </c>
       <c r="G10">
-        <v>27.16635757379004</v>
+        <v>19.50124055599089</v>
       </c>
       <c r="H10">
-        <v>13.94003013879798</v>
+        <v>7.973034374672744</v>
       </c>
       <c r="I10">
-        <v>19.75580472593893</v>
+        <v>11.17792852288392</v>
       </c>
       <c r="J10">
-        <v>11.43441819501323</v>
+        <v>9.392205910537745</v>
       </c>
       <c r="K10">
-        <v>10.03020504897307</v>
+        <v>15.07283760254765</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.99738331124676</v>
+        <v>12.76047019379338</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.88122357098071</v>
+        <v>17.50784251776181</v>
       </c>
       <c r="C11">
-        <v>6.167668311525706</v>
+        <v>10.17755101089798</v>
       </c>
       <c r="D11">
-        <v>12.15495713322714</v>
+        <v>13.18651177645109</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.40691713465492</v>
+        <v>21.86547500600853</v>
       </c>
       <c r="G11">
-        <v>27.10079786101457</v>
+        <v>19.68234937417271</v>
       </c>
       <c r="H11">
-        <v>13.90600572932943</v>
+        <v>7.914909447753011</v>
       </c>
       <c r="I11">
-        <v>19.68500269100382</v>
+        <v>11.00873158281371</v>
       </c>
       <c r="J11">
-        <v>11.46241378904071</v>
+        <v>9.616869461338091</v>
       </c>
       <c r="K11">
-        <v>10.22595336416105</v>
+        <v>15.53406859205593</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.94005147515902</v>
+        <v>12.72464866709284</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.97874395801984</v>
+        <v>17.71594611027946</v>
       </c>
       <c r="C12">
-        <v>6.226493298604919</v>
+        <v>10.28849451155992</v>
       </c>
       <c r="D12">
-        <v>12.19388635543989</v>
+        <v>13.33775414019262</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.40091167562812</v>
+        <v>21.98636295860594</v>
       </c>
       <c r="G12">
-        <v>27.07739872424393</v>
+        <v>19.75658310421215</v>
       </c>
       <c r="H12">
-        <v>13.89345035731811</v>
+        <v>7.893941275690731</v>
       </c>
       <c r="I12">
-        <v>19.65877398308969</v>
+        <v>10.94648203239851</v>
       </c>
       <c r="J12">
-        <v>11.47332770362113</v>
+        <v>9.701597660050009</v>
       </c>
       <c r="K12">
-        <v>10.29913370934545</v>
+        <v>15.70533362970684</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.91903045328193</v>
+        <v>12.71379697621155</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.95781461244581</v>
+        <v>17.67132453649633</v>
       </c>
       <c r="C13">
-        <v>6.213876745795934</v>
+        <v>10.26469635199425</v>
       </c>
       <c r="D13">
-        <v>12.18549902229206</v>
+        <v>13.30528642881517</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.40215322754208</v>
+        <v>21.96019872769038</v>
       </c>
       <c r="G13">
-        <v>27.08237452236062</v>
+        <v>19.74034110366871</v>
       </c>
       <c r="H13">
-        <v>13.8961397536883</v>
+        <v>7.898409687650644</v>
       </c>
       <c r="I13">
-        <v>19.66439690301325</v>
+        <v>10.95980518755649</v>
       </c>
       <c r="J13">
-        <v>11.47096339176812</v>
+        <v>9.683366136254973</v>
       </c>
       <c r="K13">
-        <v>10.28341594786054</v>
+        <v>15.66859963483259</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.92352701994369</v>
+        <v>12.71601045283374</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.88927963049858</v>
+        <v>17.52505224886948</v>
       </c>
       <c r="C14">
-        <v>6.172531491230613</v>
+        <v>10.18672142913756</v>
       </c>
       <c r="D14">
-        <v>12.15815836172884</v>
+        <v>13.19900186276986</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.40639970787303</v>
+        <v>21.87536245939756</v>
       </c>
       <c r="G14">
-        <v>27.09884414401896</v>
+        <v>19.68834224349043</v>
       </c>
       <c r="H14">
-        <v>13.90496619964268</v>
+        <v>7.913163098602366</v>
       </c>
       <c r="I14">
-        <v>19.68283316720322</v>
+        <v>11.00357291545856</v>
       </c>
       <c r="J14">
-        <v>11.46330545353445</v>
+        <v>9.623847337751695</v>
       </c>
       <c r="K14">
-        <v>10.23199322319252</v>
+        <v>15.54822670592992</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.93830823775652</v>
+        <v>12.72370045237854</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.84708598989059</v>
+        <v>17.434878248205</v>
       </c>
       <c r="C15">
-        <v>6.14705303799548</v>
+        <v>10.13867997716732</v>
       </c>
       <c r="D15">
-        <v>12.14142142381315</v>
+        <v>13.133592479347</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.40915254276309</v>
+        <v>21.82377519153213</v>
       </c>
       <c r="G15">
-        <v>27.10911839232553</v>
+        <v>19.65723328352793</v>
       </c>
       <c r="H15">
-        <v>13.91041548614567</v>
+        <v>7.922337774790818</v>
       </c>
       <c r="I15">
-        <v>19.69420175948547</v>
+        <v>11.03062352563262</v>
       </c>
       <c r="J15">
-        <v>11.45865527320469</v>
+        <v>9.587343690413574</v>
       </c>
       <c r="K15">
-        <v>10.20037053313954</v>
+        <v>15.47405274491561</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.94745198300334</v>
+        <v>12.72876963857296</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.60205645503645</v>
+        <v>16.90925161064961</v>
       </c>
       <c r="C16">
-        <v>5.998711626814954</v>
+        <v>9.8590945565862</v>
       </c>
       <c r="D16">
-        <v>12.04568653340077</v>
+        <v>12.75407878430243</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>29.42725248512616</v>
+        <v>21.53393785833561</v>
       </c>
       <c r="G16">
-        <v>27.17084116732672</v>
+        <v>19.49018461023754</v>
       </c>
       <c r="H16">
-        <v>13.9422997497377</v>
+        <v>7.976975186859871</v>
       </c>
       <c r="I16">
-        <v>19.76051333249713</v>
+        <v>11.18923299261283</v>
       </c>
       <c r="J16">
-        <v>11.4326326875164</v>
+        <v>9.377477844419937</v>
       </c>
       <c r="K16">
-        <v>10.01728329298175</v>
+        <v>15.0422206558562</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.00122643783929</v>
+        <v>12.76318081259027</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.44890387113469</v>
+        <v>16.57885991350651</v>
       </c>
       <c r="C17">
-        <v>5.905642945989991</v>
+        <v>9.683767403662952</v>
       </c>
       <c r="D17">
-        <v>11.98714145976674</v>
+        <v>12.5171176640575</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>29.44042890105851</v>
+        <v>21.36129974839591</v>
       </c>
       <c r="G17">
-        <v>27.21123648612656</v>
+        <v>19.3975532056933</v>
       </c>
       <c r="H17">
-        <v>13.96244571127717</v>
+        <v>8.012278917354219</v>
       </c>
       <c r="I17">
-        <v>19.80223115015094</v>
+        <v>11.28962749546618</v>
       </c>
       <c r="J17">
-        <v>11.41723182445238</v>
+        <v>9.248169824706785</v>
       </c>
       <c r="K17">
-        <v>9.903343946992564</v>
+        <v>14.77127108568455</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.03544106856765</v>
+        <v>12.78892627345076</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.35979437265742</v>
+        <v>16.38590466609049</v>
       </c>
       <c r="C18">
-        <v>5.851360382060598</v>
+        <v>9.581527436004654</v>
       </c>
       <c r="D18">
-        <v>11.95354650508173</v>
+        <v>12.37931688722447</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.44876863227738</v>
+        <v>21.2639021545479</v>
       </c>
       <c r="G18">
-        <v>27.23539732080678</v>
+        <v>19.34782267314652</v>
       </c>
       <c r="H18">
-        <v>13.97424852873804</v>
+        <v>8.033220207930698</v>
       </c>
       <c r="I18">
-        <v>19.82660763813895</v>
+        <v>11.34846556158225</v>
       </c>
       <c r="J18">
-        <v>11.40858246789299</v>
+        <v>9.173606917850547</v>
       </c>
       <c r="K18">
-        <v>9.837232927352947</v>
+        <v>14.61321438238746</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.0555702825073</v>
+        <v>12.80537936221632</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.32945037617706</v>
+        <v>16.32007086297931</v>
       </c>
       <c r="C19">
-        <v>5.832852840228424</v>
+        <v>9.546671353703934</v>
       </c>
       <c r="D19">
-        <v>11.94218633889023</v>
+        <v>12.33240269232717</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.45172295131845</v>
+        <v>21.23125113182292</v>
       </c>
       <c r="G19">
-        <v>27.24373656761605</v>
+        <v>19.33158722865904</v>
       </c>
       <c r="H19">
-        <v>13.97828175800526</v>
+        <v>8.040417822704564</v>
       </c>
       <c r="I19">
-        <v>19.8349266325839</v>
+        <v>11.36857113107777</v>
       </c>
       <c r="J19">
-        <v>11.4056899794072</v>
+        <v>9.148330685097724</v>
       </c>
       <c r="K19">
-        <v>9.814751862302133</v>
+        <v>14.55931938252727</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.06246289688074</v>
+        <v>12.81122713536704</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.46531331770706</v>
+        <v>16.61433303732658</v>
       </c>
       <c r="C20">
-        <v>5.915628260687221</v>
+        <v>9.702575905478724</v>
       </c>
       <c r="D20">
-        <v>11.99336578431175</v>
+        <v>12.5424989204847</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.43894747075988</v>
+        <v>21.37948079005283</v>
       </c>
       <c r="G20">
-        <v>27.20684036718933</v>
+        <v>19.40704506373433</v>
       </c>
       <c r="H20">
-        <v>13.96027884783763</v>
+        <v>8.00845454652165</v>
       </c>
       <c r="I20">
-        <v>19.79775073571162</v>
+        <v>11.27882619684622</v>
       </c>
       <c r="J20">
-        <v>11.41884970233125</v>
+        <v>9.261954807818791</v>
       </c>
       <c r="K20">
-        <v>9.915533067710792</v>
+        <v>14.8003433455506</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.03175229020007</v>
+        <v>12.78601406762861</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.90945471454216</v>
+        <v>17.56813637835541</v>
       </c>
       <c r="C21">
-        <v>6.184707574511315</v>
+        <v>10.20968282533256</v>
       </c>
       <c r="D21">
-        <v>12.16618694941091</v>
+        <v>13.23028425712804</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.40512078781189</v>
+        <v>21.90020229046329</v>
       </c>
       <c r="G21">
-        <v>27.09396780954621</v>
+        <v>19.70346063158268</v>
       </c>
       <c r="H21">
-        <v>13.90236473224128</v>
+        <v>7.908800825872478</v>
       </c>
       <c r="I21">
-        <v>19.67740218333178</v>
+        <v>10.99066664980177</v>
       </c>
       <c r="J21">
-        <v>11.46554634064498</v>
+        <v>9.641339261509543</v>
       </c>
       <c r="K21">
-        <v>10.24712342811535</v>
+        <v>15.58367528707509</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.93394791351471</v>
+        <v>12.72136659853565</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.190205403522</v>
+        <v>18.16561486041117</v>
       </c>
       <c r="C22">
-        <v>6.353724353889979</v>
+        <v>10.52860320843163</v>
       </c>
       <c r="D22">
-        <v>12.27961184021028</v>
+        <v>13.66608754822889</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.38980300427921</v>
+        <v>22.2574175734793</v>
       </c>
       <c r="G22">
-        <v>27.02852072298597</v>
+        <v>19.93020535889695</v>
       </c>
       <c r="H22">
-        <v>13.86643174161419</v>
+        <v>7.849781829381206</v>
       </c>
       <c r="I22">
-        <v>19.60214251167934</v>
+        <v>10.81303336334128</v>
       </c>
       <c r="J22">
-        <v>11.49788431127293</v>
+        <v>9.887247453783587</v>
       </c>
       <c r="K22">
-        <v>10.45830339027296</v>
+        <v>16.07585097943987</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.87404574192864</v>
+        <v>12.69501800752252</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.0412540048739</v>
+        <v>17.8490902797854</v>
       </c>
       <c r="C23">
-        <v>6.26414929609652</v>
+        <v>10.35953553148925</v>
       </c>
       <c r="D23">
-        <v>12.21904203377739</v>
+        <v>13.43475597945198</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.39735661013939</v>
+        <v>22.06522136525577</v>
       </c>
       <c r="G23">
-        <v>27.06268627356803</v>
+        <v>19.80610345943089</v>
       </c>
       <c r="H23">
-        <v>13.88543446405508</v>
+        <v>7.88069933757682</v>
       </c>
       <c r="I23">
-        <v>19.64199945951124</v>
+        <v>10.90681070660189</v>
       </c>
       <c r="J23">
-        <v>11.48046052481718</v>
+        <v>9.756204165415031</v>
       </c>
       <c r="K23">
-        <v>10.3461172931892</v>
+        <v>15.81497862726491</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.90564833518627</v>
+        <v>12.70756410152138</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.4578979036015</v>
+        <v>16.59830501075537</v>
       </c>
       <c r="C24">
-        <v>5.911116315712191</v>
+        <v>9.694077072554023</v>
       </c>
       <c r="D24">
-        <v>11.99055156723475</v>
+        <v>12.53102893697569</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.43961484440059</v>
+        <v>21.37125536516038</v>
       </c>
       <c r="G24">
-        <v>27.20882493457838</v>
+        <v>19.4027428332752</v>
       </c>
       <c r="H24">
-        <v>13.96125779951564</v>
+        <v>8.010181541322947</v>
       </c>
       <c r="I24">
-        <v>19.7997751088716</v>
+        <v>11.28370598569674</v>
       </c>
       <c r="J24">
-        <v>11.41811762136321</v>
+        <v>9.25572330415025</v>
       </c>
       <c r="K24">
-        <v>9.910024248436638</v>
+        <v>14.78720689065729</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.03341855800053</v>
+        <v>12.78732554505781</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.790007572851508</v>
+        <v>15.13736236033511</v>
       </c>
       <c r="C25">
-        <v>5.501694321763932</v>
+        <v>8.922991558392193</v>
       </c>
       <c r="D25">
-        <v>11.74722696274833</v>
+        <v>11.49892176425448</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.51427718951071</v>
+        <v>20.69524055309471</v>
       </c>
       <c r="G25">
-        <v>27.40183552061992</v>
+        <v>19.10218329378217</v>
       </c>
       <c r="H25">
-        <v>14.05128127636149</v>
+        <v>8.173928540379304</v>
       </c>
       <c r="I25">
-        <v>19.98454951848751</v>
+        <v>11.73167346462752</v>
       </c>
       <c r="J25">
-        <v>11.35887346798193</v>
+        <v>8.708979187301793</v>
       </c>
       <c r="K25">
-        <v>9.417901868212164</v>
+        <v>13.59408345961404</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.18843148777679</v>
+        <v>12.93555929556116</v>
       </c>
     </row>
   </sheetData>
